--- a/Code/Results/Cases/Case_5_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8323254249794729</v>
+        <v>0.2830809886899317</v>
       </c>
       <c r="C2">
-        <v>0.1171967760934933</v>
+        <v>0.05228370174917529</v>
       </c>
       <c r="D2">
-        <v>0.05825687150800007</v>
+        <v>0.03306337985746666</v>
       </c>
       <c r="E2">
-        <v>0.3390859503333488</v>
+        <v>0.1652192017219107</v>
       </c>
       <c r="F2">
-        <v>0.5880145371404382</v>
+        <v>0.8129378803801686</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8534155201479905</v>
+        <v>0.2587585588637182</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5833556415742933</v>
+        <v>0.2176760785492249</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.777402701998739</v>
+        <v>2.832204797704549</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7239863231621371</v>
+        <v>0.2507523373225808</v>
       </c>
       <c r="C3">
-        <v>0.1079228604389186</v>
+        <v>0.04908269789008557</v>
       </c>
       <c r="D3">
-        <v>0.05360739558382477</v>
+        <v>0.03135415875789249</v>
       </c>
       <c r="E3">
-        <v>0.2952409222776637</v>
+        <v>0.1541697129981614</v>
       </c>
       <c r="F3">
-        <v>0.5567401517889721</v>
+        <v>0.8105211648305612</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7468048962044662</v>
+        <v>0.2259095237996718</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5046542266005076</v>
+        <v>0.1957731359861583</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.723510883459994</v>
+        <v>2.838189110714126</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6576082405915713</v>
+        <v>0.2309166325481726</v>
       </c>
       <c r="C4">
-        <v>0.1022188800674968</v>
+        <v>0.04710047589719579</v>
       </c>
       <c r="D4">
-        <v>0.05073878403114662</v>
+        <v>0.03029392869230918</v>
       </c>
       <c r="E4">
-        <v>0.2688451934899234</v>
+        <v>0.1474994569335877</v>
       </c>
       <c r="F4">
-        <v>0.5386998648770955</v>
+        <v>0.8095404201753809</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6813965498137264</v>
+        <v>0.2056964118789892</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4567607450943569</v>
+        <v>0.1823977817766789</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.694215190105353</v>
+        <v>2.843528099202757</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6305828298598612</v>
+        <v>0.2228373722532808</v>
       </c>
       <c r="C5">
-        <v>0.09989123563881463</v>
+        <v>0.04628852206164424</v>
       </c>
       <c r="D5">
-        <v>0.04956613997325832</v>
+        <v>0.02985919589664832</v>
       </c>
       <c r="E5">
-        <v>0.2582064509648632</v>
+        <v>0.1448097466896172</v>
       </c>
       <c r="F5">
-        <v>0.531624073956209</v>
+        <v>0.8092671998140588</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6547441711118296</v>
+        <v>0.1974487944272028</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4373359863877866</v>
+        <v>0.1769655473930953</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.683181257635823</v>
+        <v>2.846122018784769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6260964151114479</v>
+        <v>0.2214960669334687</v>
       </c>
       <c r="C6">
-        <v>0.09950451571120311</v>
+        <v>0.04615344634317609</v>
       </c>
       <c r="D6">
-        <v>0.04937119699185644</v>
+        <v>0.02978684771176177</v>
       </c>
       <c r="E6">
-        <v>0.2564466032515966</v>
+        <v>0.1443648351531053</v>
       </c>
       <c r="F6">
-        <v>0.5304653341140835</v>
+        <v>0.8092294663289934</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6503183858005457</v>
+        <v>0.1960786539934958</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4341156466270064</v>
+        <v>0.1760646344298635</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.681402294371622</v>
+        <v>2.846577987859433</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6572436833759809</v>
+        <v>0.2308076563241457</v>
       </c>
       <c r="C7">
-        <v>0.1021875026831296</v>
+        <v>0.04708954248432917</v>
       </c>
       <c r="D7">
-        <v>0.05072298440543932</v>
+        <v>0.03028807655273624</v>
       </c>
       <c r="E7">
-        <v>0.2687012573438565</v>
+        <v>0.1474630675859245</v>
       </c>
       <c r="F7">
-        <v>0.5386033428730599</v>
+        <v>0.8095362235761954</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6810371119556464</v>
+        <v>0.2055852240915499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4564984227687248</v>
+        <v>0.1823244466210028</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.694062784981014</v>
+        <v>2.843561388733889</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7949332515226786</v>
+        <v>0.2719313333299169</v>
       </c>
       <c r="C8">
-        <v>0.1140006702814986</v>
+        <v>0.05118350414022643</v>
       </c>
       <c r="D8">
-        <v>0.05665648011214586</v>
+        <v>0.03247628878722253</v>
       </c>
       <c r="E8">
-        <v>0.3238502299677464</v>
+        <v>0.1613854949031506</v>
       </c>
       <c r="F8">
-        <v>0.5769796791794732</v>
+        <v>0.8120001246013402</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8166388671946976</v>
+        <v>0.2474414878395237</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5561204350457061</v>
+        <v>0.210108719840747</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.758002536315928</v>
+        <v>2.833922492611549</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.066647223130786</v>
+        <v>0.3526751361911806</v>
       </c>
       <c r="C9">
-        <v>0.13712768199143</v>
+        <v>0.05907710337511674</v>
       </c>
       <c r="D9">
-        <v>0.0681922651562985</v>
+        <v>0.03668104365515035</v>
       </c>
       <c r="E9">
-        <v>0.4368639938933043</v>
+        <v>0.1896054350021572</v>
       </c>
       <c r="F9">
-        <v>0.6622510024947772</v>
+        <v>0.8208287424903773</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.083490877514691</v>
+        <v>0.3291626809500769</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7556567781503674</v>
+        <v>0.2651795853471128</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.915883071547995</v>
+        <v>2.828246759254682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.268187953712442</v>
+        <v>0.4120481324848413</v>
       </c>
       <c r="C10">
-        <v>0.1541558631403177</v>
+        <v>0.0647931022357966</v>
       </c>
       <c r="D10">
-        <v>0.07662248103233793</v>
+        <v>0.03971667308567817</v>
       </c>
       <c r="E10">
-        <v>0.523917314889907</v>
+        <v>0.2109173303032392</v>
       </c>
       <c r="F10">
-        <v>0.7321862231415537</v>
+        <v>0.829760513062908</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.28093152676999</v>
+        <v>0.3889738941034295</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9059670547629395</v>
+        <v>0.3060093878631349</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.055246786682147</v>
+        <v>2.832169520643475</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.360500626027942</v>
+        <v>0.4390675447412207</v>
       </c>
       <c r="C11">
-        <v>0.1619252695165017</v>
+        <v>0.06737509638203676</v>
       </c>
       <c r="D11">
-        <v>0.08045169339067826</v>
+        <v>0.0410858313152076</v>
       </c>
       <c r="E11">
-        <v>0.5646514519386443</v>
+        <v>0.2207425410970387</v>
       </c>
       <c r="F11">
-        <v>0.7658673479571547</v>
+        <v>0.8343568068720941</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.371250435540787</v>
+        <v>0.4161319071566254</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9754362254180862</v>
+        <v>0.3246669330915068</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.124578192048091</v>
+        <v>2.835718031894146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.395566494844502</v>
+        <v>0.4493002885963904</v>
       </c>
       <c r="C12">
-        <v>0.1648720088379036</v>
+        <v>0.06835017487489381</v>
       </c>
       <c r="D12">
-        <v>0.08190122917459064</v>
+        <v>0.04160258225415703</v>
       </c>
       <c r="E12">
-        <v>0.5802629292676045</v>
+        <v>0.2244821261929957</v>
       </c>
       <c r="F12">
-        <v>0.7789155922374675</v>
+        <v>0.8361740954580625</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.405541613338301</v>
+        <v>0.4264084038764793</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.001925101796616</v>
+        <v>0.3317442548471945</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.151763116448365</v>
+        <v>2.83731588945389</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.388009273645281</v>
+        <v>0.447096442612235</v>
       </c>
       <c r="C13">
-        <v>0.1642371477714732</v>
+        <v>0.0681402935614841</v>
       </c>
       <c r="D13">
-        <v>0.08158906269650146</v>
+        <v>0.04149136761240158</v>
       </c>
       <c r="E13">
-        <v>0.5768920351028655</v>
+        <v>0.2236758910059891</v>
       </c>
       <c r="F13">
-        <v>0.7760919202418819</v>
+        <v>0.835779293809253</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.398152131518714</v>
+        <v>0.4241955232469081</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9962117082615407</v>
+        <v>0.330219487313272</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.145865669116972</v>
+        <v>2.836960453352702</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.363383219899248</v>
+        <v>0.4399093794446856</v>
       </c>
       <c r="C14">
-        <v>0.1621675988091482</v>
+        <v>0.06745537036813687</v>
       </c>
       <c r="D14">
-        <v>0.08057095572865336</v>
+        <v>0.04112837934686553</v>
       </c>
       <c r="E14">
-        <v>0.5659319413304829</v>
+        <v>0.2210498169676853</v>
       </c>
       <c r="F14">
-        <v>0.7669347912247559</v>
+        <v>0.8345047771042999</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.374069696964796</v>
+        <v>0.4169775164228611</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9776116723962076</v>
+        <v>0.3252489455074041</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.126795596062465</v>
+        <v>2.835844393224164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.348313824391283</v>
+        <v>0.4355072241566518</v>
       </c>
       <c r="C15">
-        <v>0.1609005843016291</v>
+        <v>0.06703548657692693</v>
       </c>
       <c r="D15">
-        <v>0.07994728021577657</v>
+        <v>0.04090581379371372</v>
       </c>
       <c r="E15">
-        <v>0.5592435656257209</v>
+        <v>0.2194437514313776</v>
       </c>
       <c r="F15">
-        <v>0.7613648527985646</v>
+        <v>0.8337340997446319</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.359330682149846</v>
+        <v>0.4125552701514437</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9662431582911637</v>
+        <v>0.3222059244043507</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.115238220697421</v>
+        <v>2.835193880512804</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.262169332247311</v>
+        <v>0.4102825234811291</v>
       </c>
       <c r="C16">
-        <v>0.1536486892610185</v>
+        <v>0.06462399204060887</v>
       </c>
       <c r="D16">
-        <v>0.07637214437207263</v>
+        <v>0.03962695625553891</v>
       </c>
       <c r="E16">
-        <v>0.5212799975403755</v>
+        <v>0.2102778735239355</v>
       </c>
       <c r="F16">
-        <v>0.7300247848007047</v>
+        <v>0.8294708721264783</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.275040513127948</v>
+        <v>0.387198005086816</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9014511770457574</v>
+        <v>0.3047917656287282</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.050841695568579</v>
+        <v>2.831973152188937</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.209496638246122</v>
+        <v>0.3948103437952</v>
       </c>
       <c r="C17">
-        <v>0.1492067153851906</v>
+        <v>0.06313991490046078</v>
       </c>
       <c r="D17">
-        <v>0.07417766478894805</v>
+        <v>0.03883938548380428</v>
       </c>
       <c r="E17">
-        <v>0.4982968003587587</v>
+        <v>0.2046884613820552</v>
       </c>
       <c r="F17">
-        <v>0.7112943911086234</v>
+        <v>0.8269921536285665</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.223471609908444</v>
+        <v>0.3716289448530858</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8620005039730074</v>
+        <v>0.2941302615771662</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.012909489762762</v>
+        <v>2.830449468906806</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.179258886278632</v>
+        <v>0.3859121526270144</v>
       </c>
       <c r="C18">
-        <v>0.1466539088483216</v>
+        <v>0.06228459848867374</v>
       </c>
       <c r="D18">
-        <v>0.072914897470028</v>
+        <v>0.03838528989558654</v>
       </c>
       <c r="E18">
-        <v>0.4851826099538457</v>
+        <v>0.2014858309370595</v>
       </c>
       <c r="F18">
-        <v>0.7006952828014192</v>
+        <v>0.8256166404156033</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.193856698835418</v>
+        <v>0.3626693126244902</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8394106882139454</v>
+        <v>0.2880059367448027</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.991645461371036</v>
+        <v>2.829739098452364</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169030361374666</v>
+        <v>0.3828995617446935</v>
       </c>
       <c r="C19">
-        <v>0.1457898953553212</v>
+        <v>0.06199470991354872</v>
       </c>
       <c r="D19">
-        <v>0.07248724053824418</v>
+        <v>0.03823135187441551</v>
       </c>
       <c r="E19">
-        <v>0.4807597486196542</v>
+        <v>0.2004035718830863</v>
       </c>
       <c r="F19">
-        <v>0.6971357690067777</v>
+        <v>0.8251595306883388</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.183837026497059</v>
+        <v>0.3596349367105347</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8317788035175226</v>
+        <v>0.2859336990883747</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.984538646807437</v>
+        <v>2.829527078247423</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.215097585852476</v>
+        <v>0.3964572834730973</v>
       </c>
       <c r="C20">
-        <v>0.149679344789007</v>
+        <v>0.06329807520505426</v>
       </c>
       <c r="D20">
-        <v>0.07441132668405714</v>
+        <v>0.0389233383760228</v>
       </c>
       <c r="E20">
-        <v>0.5007323568535185</v>
+        <v>0.2052821940398672</v>
       </c>
       <c r="F20">
-        <v>0.7132700749514811</v>
+        <v>0.827250823260016</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.228956310697185</v>
+        <v>0.3732867893955074</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8661894483402506</v>
+        <v>0.2952643798721937</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.016889604605694</v>
+        <v>2.830594482727719</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.370613375162577</v>
+        <v>0.4420203680754184</v>
       </c>
       <c r="C21">
-        <v>0.1627753388132049</v>
+        <v>0.06765662162811736</v>
       </c>
       <c r="D21">
-        <v>0.08087000939693212</v>
+        <v>0.04123504468868333</v>
       </c>
       <c r="E21">
-        <v>0.5691459321405858</v>
+        <v>0.2218206411590202</v>
       </c>
       <c r="F21">
-        <v>0.7696162721292552</v>
+        <v>0.8348770491944322</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.381140722533786</v>
+        <v>0.4190978309206628</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9830697902660788</v>
+        <v>0.3267085849058446</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.132371034889815</v>
+        <v>2.836165307007349</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.472897253450981</v>
+        <v>0.4718045780902571</v>
       </c>
       <c r="C22">
-        <v>0.1713620269798781</v>
+        <v>0.07048962052712682</v>
       </c>
       <c r="D22">
-        <v>0.08508836522896246</v>
+        <v>0.04273584266793762</v>
       </c>
       <c r="E22">
-        <v>0.6149567502319258</v>
+        <v>0.2327402831699743</v>
       </c>
       <c r="F22">
-        <v>0.8081683136583564</v>
+        <v>0.8403087597599779</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.4811319446315</v>
+        <v>0.4489931986003342</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.06053447065522</v>
+        <v>0.3473298277707642</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.213309684579514</v>
+        <v>2.84128753696649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.418240914577353</v>
+        <v>0.4559077607529787</v>
       </c>
       <c r="C23">
-        <v>0.1667761550437916</v>
+        <v>0.06897903396023253</v>
       </c>
       <c r="D23">
-        <v>0.08283708882319729</v>
+        <v>0.04193576594881421</v>
       </c>
       <c r="E23">
-        <v>0.5903978333925011</v>
+        <v>0.2269020425681276</v>
       </c>
       <c r="F23">
-        <v>0.7874254512477137</v>
+        <v>0.837368771610457</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.42771021341693</v>
+        <v>0.4330417102545709</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.019082638075879</v>
+        <v>0.3363174008265517</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.169583974898131</v>
+        <v>2.838418012816817</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.212565260259424</v>
+        <v>0.3957127114505852</v>
       </c>
       <c r="C24">
-        <v>0.1494656661935068</v>
+        <v>0.06322657747271876</v>
       </c>
       <c r="D24">
-        <v>0.07430569169014234</v>
+        <v>0.03888538735424163</v>
       </c>
       <c r="E24">
-        <v>0.4996309346569205</v>
+        <v>0.2050137338955835</v>
       </c>
       <c r="F24">
-        <v>0.7123763430256815</v>
+        <v>0.8271337244265879</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.22647657677777</v>
+        <v>0.3725373051731822</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.864295345342093</v>
+        <v>0.2947516290638603</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.015088506945204</v>
+        <v>2.830528406120379</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9928725675803491</v>
+        <v>0.3308221618610219</v>
       </c>
       <c r="C25">
-        <v>0.1308694270808672</v>
+        <v>0.05695623117003379</v>
       </c>
       <c r="D25">
-        <v>0.06508067135651885</v>
+        <v>0.03555288947520552</v>
       </c>
       <c r="E25">
-        <v>0.4056659532442879</v>
+        <v>0.1818709411557364</v>
       </c>
       <c r="F25">
-        <v>0.6379937009946488</v>
+        <v>0.8180115616049903</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.011119728477439</v>
+        <v>0.3070944521543311</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7011149129765286</v>
+        <v>0.2502174838313849</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.869341302809744</v>
+        <v>2.828363172449144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2830809886899317</v>
+        <v>0.8323254249794729</v>
       </c>
       <c r="C2">
-        <v>0.05228370174917529</v>
+        <v>0.1171967760937918</v>
       </c>
       <c r="D2">
-        <v>0.03306337985746666</v>
+        <v>0.05825687150800718</v>
       </c>
       <c r="E2">
-        <v>0.1652192017219107</v>
+        <v>0.3390859503333274</v>
       </c>
       <c r="F2">
-        <v>0.8129378803801686</v>
+        <v>0.5880145371404168</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2587585588637182</v>
+        <v>0.8534155201479052</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2176760785492249</v>
+        <v>0.5833556415742862</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.832204797704549</v>
+        <v>1.777402701998682</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2507523373225808</v>
+        <v>0.7239863231621086</v>
       </c>
       <c r="C3">
-        <v>0.04908269789008557</v>
+        <v>0.1079228604389115</v>
       </c>
       <c r="D3">
-        <v>0.03135415875789249</v>
+        <v>0.05360739558371108</v>
       </c>
       <c r="E3">
-        <v>0.1541697129981614</v>
+        <v>0.2952409222776566</v>
       </c>
       <c r="F3">
-        <v>0.8105211648305612</v>
+        <v>0.5567401517889863</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2259095237996718</v>
+        <v>0.7468048962044804</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1957731359861583</v>
+        <v>0.5046542266005005</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.838189110714126</v>
+        <v>1.723510883460079</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2309166325481726</v>
+        <v>0.6576082405915429</v>
       </c>
       <c r="C4">
-        <v>0.04710047589719579</v>
+        <v>0.102218880067511</v>
       </c>
       <c r="D4">
-        <v>0.03029392869230918</v>
+        <v>0.05073878403107557</v>
       </c>
       <c r="E4">
-        <v>0.1474994569335877</v>
+        <v>0.2688451934899021</v>
       </c>
       <c r="F4">
-        <v>0.8095404201753809</v>
+        <v>0.5386998648770813</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2056964118789892</v>
+        <v>0.6813965498137264</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1823977817766789</v>
+        <v>0.4567607450943498</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.843528099202757</v>
+        <v>1.694215190105353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2228373722532808</v>
+        <v>0.6305828298596339</v>
       </c>
       <c r="C5">
-        <v>0.04628852206164424</v>
+        <v>0.09989123563835989</v>
       </c>
       <c r="D5">
-        <v>0.02985919589664832</v>
+        <v>0.04956613997338621</v>
       </c>
       <c r="E5">
-        <v>0.1448097466896172</v>
+        <v>0.2582064509648987</v>
       </c>
       <c r="F5">
-        <v>0.8092671998140588</v>
+        <v>0.531624073956209</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1974487944272028</v>
+        <v>0.654744171111787</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1769655473930953</v>
+        <v>0.4373359863877937</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.846122018784769</v>
+        <v>1.683181257635823</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2214960669334687</v>
+        <v>0.6260964151113626</v>
       </c>
       <c r="C6">
-        <v>0.04615344634317609</v>
+        <v>0.09950451571049967</v>
       </c>
       <c r="D6">
-        <v>0.02978684771176177</v>
+        <v>0.04937119699190617</v>
       </c>
       <c r="E6">
-        <v>0.1443648351531053</v>
+        <v>0.256446603251625</v>
       </c>
       <c r="F6">
-        <v>0.8092294663289934</v>
+        <v>0.5304653341140622</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1960786539934958</v>
+        <v>0.6503183858005741</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1760646344298635</v>
+        <v>0.4341156466270135</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.846577987859433</v>
+        <v>1.681402294371594</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2308076563241457</v>
+        <v>0.6572436833760946</v>
       </c>
       <c r="C7">
-        <v>0.04708954248432917</v>
+        <v>0.1021875026829662</v>
       </c>
       <c r="D7">
-        <v>0.03028807655273624</v>
+        <v>0.05072298440556011</v>
       </c>
       <c r="E7">
-        <v>0.1474630675859245</v>
+        <v>0.2687012573438281</v>
       </c>
       <c r="F7">
-        <v>0.8095362235761954</v>
+        <v>0.5386033428730528</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2055852240915499</v>
+        <v>0.6810371119556748</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1823244466210028</v>
+        <v>0.4564984227687106</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.843561388733889</v>
+        <v>1.694062784981043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2719313333299169</v>
+        <v>0.7949332515226502</v>
       </c>
       <c r="C8">
-        <v>0.05118350414022643</v>
+        <v>0.1140006702814276</v>
       </c>
       <c r="D8">
-        <v>0.03247628878722253</v>
+        <v>0.05665648011226665</v>
       </c>
       <c r="E8">
-        <v>0.1613854949031506</v>
+        <v>0.3238502299677322</v>
       </c>
       <c r="F8">
-        <v>0.8120001246013402</v>
+        <v>0.5769796791794519</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2474414878395237</v>
+        <v>0.8166388671948397</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.210108719840747</v>
+        <v>0.5561204350456848</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.833922492611549</v>
+        <v>1.7580025363159</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3526751361911806</v>
+        <v>1.066647223130673</v>
       </c>
       <c r="C9">
-        <v>0.05907710337511674</v>
+        <v>0.1371276819913163</v>
       </c>
       <c r="D9">
-        <v>0.03668104365515035</v>
+        <v>0.06819226515618482</v>
       </c>
       <c r="E9">
-        <v>0.1896054350021572</v>
+        <v>0.4368639938932972</v>
       </c>
       <c r="F9">
-        <v>0.8208287424903773</v>
+        <v>0.6622510024947701</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3291626809500769</v>
+        <v>1.083490877514691</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2651795853471128</v>
+        <v>0.7556567781503674</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.828246759254682</v>
+        <v>1.915883071547995</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4120481324848413</v>
+        <v>1.268187953712584</v>
       </c>
       <c r="C10">
-        <v>0.0647931022357966</v>
+        <v>0.1541558631405593</v>
       </c>
       <c r="D10">
-        <v>0.03971667308567817</v>
+        <v>0.07662248103234504</v>
       </c>
       <c r="E10">
-        <v>0.2109173303032392</v>
+        <v>0.5239173148899141</v>
       </c>
       <c r="F10">
-        <v>0.829760513062908</v>
+        <v>0.7321862231415537</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3889738941034295</v>
+        <v>1.280931526770047</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3060093878631349</v>
+        <v>0.9059670547629324</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.832169520643475</v>
+        <v>2.055246786682176</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4390675447412207</v>
+        <v>1.360500626027914</v>
       </c>
       <c r="C11">
-        <v>0.06737509638203676</v>
+        <v>0.1619252695165301</v>
       </c>
       <c r="D11">
-        <v>0.0410858313152076</v>
+        <v>0.08045169339067826</v>
       </c>
       <c r="E11">
-        <v>0.2207425410970387</v>
+        <v>0.5646514519386656</v>
       </c>
       <c r="F11">
-        <v>0.8343568068720941</v>
+        <v>0.7658673479571405</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4161319071566254</v>
+        <v>1.371250435540702</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3246669330915068</v>
+        <v>0.9754362254181075</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.835718031894146</v>
+        <v>2.124578192048091</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4493002885963904</v>
+        <v>1.395566494844616</v>
       </c>
       <c r="C12">
-        <v>0.06835017487489381</v>
+        <v>0.1648720088379036</v>
       </c>
       <c r="D12">
-        <v>0.04160258225415703</v>
+        <v>0.08190122917464748</v>
       </c>
       <c r="E12">
-        <v>0.2244821261929957</v>
+        <v>0.5802629292676045</v>
       </c>
       <c r="F12">
-        <v>0.8361740954580625</v>
+        <v>0.7789155922374675</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4264084038764793</v>
+        <v>1.405541613338443</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3317442548471945</v>
+        <v>1.001925101796623</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.83731588945389</v>
+        <v>2.151763116448478</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.447096442612235</v>
+        <v>1.388009273645395</v>
       </c>
       <c r="C13">
-        <v>0.0681402935614841</v>
+        <v>0.164237147771928</v>
       </c>
       <c r="D13">
-        <v>0.04149136761240158</v>
+        <v>0.08158906269638067</v>
       </c>
       <c r="E13">
-        <v>0.2236758910059891</v>
+        <v>0.5768920351028797</v>
       </c>
       <c r="F13">
-        <v>0.835779293809253</v>
+        <v>0.7760919202418677</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4241955232469081</v>
+        <v>1.398152131518799</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.330219487313272</v>
+        <v>0.9962117082615336</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.836960453352702</v>
+        <v>2.145865669117057</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4399093794446856</v>
+        <v>1.363383219899191</v>
       </c>
       <c r="C14">
-        <v>0.06745537036813687</v>
+        <v>0.1621675988090203</v>
       </c>
       <c r="D14">
-        <v>0.04112837934686553</v>
+        <v>0.08057095572853967</v>
       </c>
       <c r="E14">
-        <v>0.2210498169676853</v>
+        <v>0.5659319413304758</v>
       </c>
       <c r="F14">
-        <v>0.8345047771042999</v>
+        <v>0.7669347912247559</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4169775164228611</v>
+        <v>1.374069696964909</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3252489455074041</v>
+        <v>0.9776116723961863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.835844393224164</v>
+        <v>2.126795596062578</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4355072241566518</v>
+        <v>1.34831382439117</v>
       </c>
       <c r="C15">
-        <v>0.06703548657692693</v>
+        <v>0.160900584301487</v>
       </c>
       <c r="D15">
-        <v>0.04090581379371372</v>
+        <v>0.07994728021578368</v>
       </c>
       <c r="E15">
-        <v>0.2194437514313776</v>
+        <v>0.5592435656257351</v>
       </c>
       <c r="F15">
-        <v>0.8337340997446319</v>
+        <v>0.7613648527985646</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4125552701514437</v>
+        <v>1.359330682149789</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3222059244043507</v>
+        <v>0.9662431582911637</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.835193880512804</v>
+        <v>2.115238220697421</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4102825234811291</v>
+        <v>1.262169332247367</v>
       </c>
       <c r="C16">
-        <v>0.06462399204060887</v>
+        <v>0.1536486892614874</v>
       </c>
       <c r="D16">
-        <v>0.03962695625553891</v>
+        <v>0.07637214437210815</v>
       </c>
       <c r="E16">
-        <v>0.2102778735239355</v>
+        <v>0.5212799975403541</v>
       </c>
       <c r="F16">
-        <v>0.8294708721264783</v>
+        <v>0.7300247848007189</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.387198005086816</v>
+        <v>1.275040513128033</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3047917656287282</v>
+        <v>0.9014511770457503</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.831973152188937</v>
+        <v>2.050841695568636</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3948103437952</v>
+        <v>1.20949663824598</v>
       </c>
       <c r="C17">
-        <v>0.06313991490046078</v>
+        <v>0.1492067153852901</v>
       </c>
       <c r="D17">
-        <v>0.03883938548380428</v>
+        <v>0.0741776647888841</v>
       </c>
       <c r="E17">
-        <v>0.2046884613820552</v>
+        <v>0.49829680035878</v>
       </c>
       <c r="F17">
-        <v>0.8269921536285665</v>
+        <v>0.7112943911086234</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3716289448530858</v>
+        <v>1.223471609908472</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2941302615771662</v>
+        <v>0.8620005039730216</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.830449468906806</v>
+        <v>2.012909489762819</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3859121526270144</v>
+        <v>1.179258886278745</v>
       </c>
       <c r="C18">
-        <v>0.06228459848867374</v>
+        <v>0.1466539088483501</v>
       </c>
       <c r="D18">
-        <v>0.03838528989558654</v>
+        <v>0.07291489746991431</v>
       </c>
       <c r="E18">
-        <v>0.2014858309370595</v>
+        <v>0.4851826099539096</v>
       </c>
       <c r="F18">
-        <v>0.8256166404156033</v>
+        <v>0.7006952828014192</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3626693126244902</v>
+        <v>1.19385669883556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2880059367448027</v>
+        <v>0.8394106882139525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.829739098452364</v>
+        <v>1.991645461371178</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3828995617446935</v>
+        <v>1.169030361374695</v>
       </c>
       <c r="C19">
-        <v>0.06199470991354872</v>
+        <v>0.1457898953553354</v>
       </c>
       <c r="D19">
-        <v>0.03823135187441551</v>
+        <v>0.07248724053836497</v>
       </c>
       <c r="E19">
-        <v>0.2004035718830863</v>
+        <v>0.4807597486196684</v>
       </c>
       <c r="F19">
-        <v>0.8251595306883388</v>
+        <v>0.6971357690067777</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3596349367105347</v>
+        <v>1.183837026497002</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2859336990883747</v>
+        <v>0.8317788035175013</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.829527078247423</v>
+        <v>1.984538646807437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3964572834730973</v>
+        <v>1.215097585852249</v>
       </c>
       <c r="C20">
-        <v>0.06329807520505426</v>
+        <v>0.1496793447891349</v>
       </c>
       <c r="D20">
-        <v>0.0389233383760228</v>
+        <v>0.0744113266839932</v>
       </c>
       <c r="E20">
-        <v>0.2052821940398672</v>
+        <v>0.5007323568535114</v>
       </c>
       <c r="F20">
-        <v>0.827250823260016</v>
+        <v>0.7132700749514669</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3732867893955074</v>
+        <v>1.228956310697299</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2952643798721937</v>
+        <v>0.8661894483402293</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.830594482727719</v>
+        <v>2.016889604605723</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4420203680754184</v>
+        <v>1.370613375162776</v>
       </c>
       <c r="C21">
-        <v>0.06765662162811736</v>
+        <v>0.1627753388133328</v>
       </c>
       <c r="D21">
-        <v>0.04123504468868333</v>
+        <v>0.08087000939723055</v>
       </c>
       <c r="E21">
-        <v>0.2218206411590202</v>
+        <v>0.5691459321406001</v>
       </c>
       <c r="F21">
-        <v>0.8348770491944322</v>
+        <v>0.7696162721292552</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4190978309206628</v>
+        <v>1.381140722533814</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3267085849058446</v>
+        <v>0.9830697902660859</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.836165307007349</v>
+        <v>2.132371034889843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4718045780902571</v>
+        <v>1.472897253451322</v>
       </c>
       <c r="C22">
-        <v>0.07048962052712682</v>
+        <v>0.1713620269800913</v>
       </c>
       <c r="D22">
-        <v>0.04273584266793762</v>
+        <v>0.08508836522891272</v>
       </c>
       <c r="E22">
-        <v>0.2327402831699743</v>
+        <v>0.6149567502319115</v>
       </c>
       <c r="F22">
-        <v>0.8403087597599779</v>
+        <v>0.8081683136583138</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4489931986003342</v>
+        <v>1.481131944631528</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3473298277707642</v>
+        <v>1.06053447065522</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.84128753696649</v>
+        <v>2.213309684579542</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4559077607529787</v>
+        <v>1.418240914577495</v>
       </c>
       <c r="C23">
-        <v>0.06897903396023253</v>
+        <v>0.166776155044019</v>
       </c>
       <c r="D23">
-        <v>0.04193576594881421</v>
+        <v>0.08283708882318308</v>
       </c>
       <c r="E23">
-        <v>0.2269020425681276</v>
+        <v>0.5903978333925011</v>
       </c>
       <c r="F23">
-        <v>0.837368771610457</v>
+        <v>0.7874254512477421</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4330417102545709</v>
+        <v>1.427710213416987</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3363174008265517</v>
+        <v>1.019082638075901</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.838418012816817</v>
+        <v>2.169583974898188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3957127114505852</v>
+        <v>1.21256526025951</v>
       </c>
       <c r="C24">
-        <v>0.06322657747271876</v>
+        <v>0.1494656661938336</v>
       </c>
       <c r="D24">
-        <v>0.03888538735424163</v>
+        <v>0.07430569169024892</v>
       </c>
       <c r="E24">
-        <v>0.2050137338955835</v>
+        <v>0.4996309346569419</v>
       </c>
       <c r="F24">
-        <v>0.8271337244265879</v>
+        <v>0.7123763430256957</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3725373051731822</v>
+        <v>1.226476576777685</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2947516290638603</v>
+        <v>0.8642953453421143</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.830528406120379</v>
+        <v>2.015088506945176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3308221618610219</v>
+        <v>0.9928725675802639</v>
       </c>
       <c r="C25">
-        <v>0.05695623117003379</v>
+        <v>0.1308694270807536</v>
       </c>
       <c r="D25">
-        <v>0.03555288947520552</v>
+        <v>0.06508067135651885</v>
       </c>
       <c r="E25">
-        <v>0.1818709411557364</v>
+        <v>0.4056659532443021</v>
       </c>
       <c r="F25">
-        <v>0.8180115616049903</v>
+        <v>0.637993700994663</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3070944521543311</v>
+        <v>1.011119728477468</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2502174838313849</v>
+        <v>0.7011149129765286</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.828363172449144</v>
+        <v>1.869341302809829</v>
       </c>
     </row>
   </sheetData>
